--- a/explore/openCyto/TcellSubs/NodeMapper.xlsx
+++ b/explore/openCyto/TcellSubs/NodeMapper.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,11 +789,11 @@
         <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K14" t="str">
-        <f>"c("""&amp;H14&amp;""","&amp;I14&amp;""","&amp;H14&amp;""")"</f>
-        <v>c("EM3 cytotoxic Tcells (CD27-  CD28-)",CD28-CD27-",EM3 cytotoxic Tcells (CD27-  CD28-)")</v>
+        <f>"c("""&amp;H14&amp;""","""&amp;I14&amp;""","""&amp;J14&amp;"""),"</f>
+        <v>c("EM3 cytotoxic Tcells (CD27-  CD28-)","CD28-CD27-","effector memory cytotoxic Tcells (CCR7- , CD45RA-)"),</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -816,11 +816,11 @@
         <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:K20" si="0">"c("""&amp;H15&amp;""","&amp;I15&amp;""","&amp;H15&amp;""")"</f>
-        <v>c("EM4 cytotoxic Tcells (CD27-  CD28+)",CD28+CD27-",EM4 cytotoxic Tcells (CD27-  CD28+)")</v>
+        <f t="shared" ref="K15:K20" si="0">"c("""&amp;H15&amp;""","""&amp;I15&amp;""","""&amp;J15&amp;"""),"</f>
+        <v>c("EM4 cytotoxic Tcells (CD27-  CD28+)","CD28+CD27-","effector memory cytotoxic Tcells (CCR7- , CD45RA-)"),</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -843,11 +843,11 @@
         <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>c("EM2 cytotoxic Tcells (CD27+  CD28-)",CD28-CD27+",EM2 cytotoxic Tcells (CD27+  CD28-)")</v>
+        <v>c("EM2 cytotoxic Tcells (CD27+  CD28-)","CD28-CD27+","effector memory cytotoxic Tcells (CCR7- , CD45RA-)"),</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -870,11 +870,11 @@
         <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>c("EM1 cytotoxic Tcells (CD27+  CD28+)",CD28+CD27+",EM1 cytotoxic Tcells (CD27+  CD28+)")</v>
+        <v>c("EM1 cytotoxic Tcells (CD27+  CD28+)","CD28+CD27+","effector memory cytotoxic Tcells (CCR7- , CD45RA-)"),</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -901,7 +901,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>c("pE cytotoxic Tcells (CD27-  CD28-)",CD28-CD27-",pE cytotoxic Tcells (CD27-  CD28-)")</v>
+        <v>c("pE cytotoxic Tcells (CD27-  CD28-)","CD28-CD27-","effector cytotoxic Tcells  (CCR7-  CD45RA+)"),</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -928,7 +928,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>c("pE2 cytotoxic Tcells (CD27+ , CD28-)",CD28-CD27+",pE2 cytotoxic Tcells (CD27+ , CD28-)")</v>
+        <v>c("pE2 cytotoxic Tcells (CD27+ , CD28-)","CD28-CD27+","effector cytotoxic Tcells  (CCR7-  CD45RA+)"),</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -955,7 +955,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>c("pE1 cytotoxic Tcells (CD27+  CD28+)",CD28+CD27+",pE1 cytotoxic Tcells (CD27+  CD28+)")</v>
+        <v>c("pE1 cytotoxic Tcells (CD27+  CD28+)","CD28+CD27+","effector cytotoxic Tcells  (CCR7-  CD45RA+)"),</v>
       </c>
     </row>
     <row r="21" spans="1:11">
